--- a/biology/Médecine/1199_en_santé_et_médecine/1199_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1199_en_santé_et_médecine/1199_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1199_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1199_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1199 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1199_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1199_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Première mention de l'hôpital Saint-Nicolas de Nailly, dépendant de l'abbaye Saint-Pierre de Flavigny en Bourgogne[1].
-Fondation à Sacile, dans le Frioul, en Italie, d'un hôpital de pèlerins, qui sera géré par la commune à partir de 1366 et qui, au milieu du XVe siècle, recevra aussi des malades et aura recours aux services d'un chirurgien[2].
-Avant 1199 : fondation à Sutton-at-Hone (en), près de Dartford dans le Kent en Angleterre, d'un hôpital voué aux soins « des malades, des vieillards, des infirmes et des pauvres », et qui sera confié aux hospitaliers de Saint-Jean de Jérusalem en 1214[3].
-1195-1199 : fondation de la léproserie Saint-Lazare d'Herbet, au sud-est de Montferrand, en Auvergne[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Première mention de l'hôpital Saint-Nicolas de Nailly, dépendant de l'abbaye Saint-Pierre de Flavigny en Bourgogne.
+Fondation à Sacile, dans le Frioul, en Italie, d'un hôpital de pèlerins, qui sera géré par la commune à partir de 1366 et qui, au milieu du XVe siècle, recevra aussi des malades et aura recours aux services d'un chirurgien.
+Avant 1199 : fondation à Sutton-at-Hone (en), près de Dartford dans le Kent en Angleterre, d'un hôpital voué aux soins « des malades, des vieillards, des infirmes et des pauvres », et qui sera confié aux hospitaliers de Saint-Jean de Jérusalem en 1214.
+1195-1199 : fondation de la léproserie Saint-Lazare d'Herbet, au sud-est de Montferrand, en Auvergne.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1199_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1199_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6 avril : Atteint quelques jours plus tôt d'un carreau d'arbalète au siège de Châlus, Richard Cœur de Lion meurt de septicémie ou de gangrène[5].
-Le treizième canon du concile de Londres tenu à Westminster sous la présidence de Hubert, archevêque de Cantorbéry, rappelle que depuis le concile du Latran de 1179, les lépreux doivent avoir « un prêtre et une église particulière avec un cimetière, à part, pour les inhumer[6] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6 avril : Atteint quelques jours plus tôt d'un carreau d'arbalète au siège de Châlus, Richard Cœur de Lion meurt de septicémie ou de gangrène.
+Le treizième canon du concile de Londres tenu à Westminster sous la présidence de Hubert, archevêque de Cantorbéry, rappelle que depuis le concile du Latran de 1179, les lépreux doivent avoir « un prêtre et une église particulière avec un cimetière, à part, pour les inhumer ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1199_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1199_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Parution, sous le titre de Kitâb al-Diryâq, d'une traduction arabe du Livre de la thériaque du Pseudo-Galien[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parution, sous le titre de Kitâb al-Diryâq, d'une traduction arabe du Livre de la thériaque du Pseudo-Galien.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1199_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1199_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,12 +623,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Fl. Tortor[8] et Étienne[9], respectivement professeur et maître à l'université de médecine de Montpellier.
-Fl. Arnaud, médecin cité comme témoin dans un acte du chapitre de Die en Dauphiné[9].
-Fl. G., médecin à Saint-Guilhem-le-Désert en Languedoc[9].
-Fl. Jean, « médecin cité dans une charte de Saint-Maixent » dans le Maine[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fl. Tortor et Étienne, respectivement professeur et maître à l'université de médecine de Montpellier.
+Fl. Arnaud, médecin cité comme témoin dans un acte du chapitre de Die en Dauphiné.
+Fl. G., médecin à Saint-Guilhem-le-Désert en Languedoc.
+Fl. Jean, « médecin cité dans une charte de Saint-Maixent » dans le Maine.</t>
         </is>
       </c>
     </row>
